--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -86,6 +86,20 @@
   <si>
     <t>A profile on the FamilyMemberHistory that declares how MHV will Create/Update in PGHD for an family member history record.
 **Proposed mapping not yet approved for implementation**
+The specification here is 
+* inspired by https://phgkb.cdc.gov/FHH/html/index.html
+* could derive off of QI-Core FamilyMemberHistory profile, but it is not clear that gives us anything useful  https://hl7.org/fhir/us/qicore/StructureDefinition-qicore-familymemberhistory.html
+* There is no profile of FamilyMemberHistory in us-core
+* USCDI v2 added Health Conserns and hint that family member is included. https://www.healthit.gov/isa/united-states-core-data-interoperability-uscdi#uscdi-v2
+* USCDI v3 seems to be similar https://www.healthit.gov/isa/united-states-core-data-interoperability-uscdi#draft-uscdi-v3
+* Level 2 has it clear Family Health History https://www.healthit.gov/isa/united-states-core-data-interoperability-uscdi#level-2
+Some discussion notes
+* could indication of twin (multiple-birth) using http://hl7.org/fhir/R4/extension-family-member-history-genetics-sibling.html
+  * not clear this is the best match, as this requires a link to the 'other' sibling
+  * where as the CDC prototype just wanted to know if this member was a multi-birth
+* could indicate race and ethnicity using http://hl7.org/fhir/R4/extension-family-member-history-genetics-observation.html
+  * not clear these are useful as they require the family-member to also be a Patient
+  * these observations likely are contained so as to not confuse with a real patient
 Given that MyHealtheVet has access to medical record (Vista and Cerner) of FamilyMemberHistory, there should be logic keeping a patient from entering a duplicate details.
 * For each relative of the Patient there will be a FamilyMemberHistory instance 
   * Thus a query of the FamilyMemberHistory instances for a given Patient will give you all the relatives for which medical history is known.

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -86,20 +86,6 @@
   <si>
     <t>A profile on the FamilyMemberHistory that declares how MHV will Create/Update in PGHD for an family member history record.
 **Proposed mapping not yet approved for implementation**
-The specification here is 
-* inspired by https://phgkb.cdc.gov/FHH/html/index.html
-* could derive off of QI-Core FamilyMemberHistory profile, but it is not clear that gives us anything useful  https://hl7.org/fhir/us/qicore/StructureDefinition-qicore-familymemberhistory.html
-* There is no profile of FamilyMemberHistory in us-core
-* USCDI v2 added Health Conserns and hint that family member is included. https://www.healthit.gov/isa/united-states-core-data-interoperability-uscdi#uscdi-v2
-* USCDI v3 seems to be similar https://www.healthit.gov/isa/united-states-core-data-interoperability-uscdi#draft-uscdi-v3
-* Level 2 has it clear Family Health History https://www.healthit.gov/isa/united-states-core-data-interoperability-uscdi#level-2
-Some discussion notes
-* could indication of twin (multiple-birth) using http://hl7.org/fhir/R4/extension-family-member-history-genetics-sibling.html
-  * not clear this is the best match, as this requires a link to the 'other' sibling
-  * where as the CDC prototype just wanted to know if this member was a multi-birth
-* could indicate race and ethnicity using http://hl7.org/fhir/R4/extension-family-member-history-genetics-observation.html
-  * not clear these are useful as they require the family-member to also be a Patient
-  * these observations likely are contained so as to not confuse with a real patient
 Given that MyHealtheVet has access to medical record (Vista and Cerner) of FamilyMemberHistory, there should be logic keeping a patient from entering a duplicate details.
 * For each relative of the Patient there will be a FamilyMemberHistory instance 
   * Thus a query of the FamilyMemberHistory instances for a given Patient will give you all the relatives for which medical history is known.
@@ -117,9 +103,9 @@
   * indicate estimatedAge if the age is estimated
 * should have indication when patient has died with the age of death or date
   * should use a valueSet for date ranges on decades 
-* extension indication of twin (multiple-birth) using * extension indicate race 
-* extension indicate ethnicity 
-* extension indicated if adopted
+* extension indication of twin (multiple-birth) using * extension indicate Race 
+* extension indicate Ethnicity 
+* extension indicated if Adopted
 * should have 0..* conditions
   * condition.code should be from a given valueSet
   * condition.outcome should indicate the outcome of this condition
@@ -286,7 +272,10 @@
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
-    <t>Mapping: MyHealtheVet mapping to FHIR/PGHD</t>
+    <t>Mapping: MyHealtheVet new Family Health History UI mapping to FHIR/PGHD</t>
+  </si>
+  <si>
+    <t>Mapping: MyHealtheVet old Family Health History UI mapping to FHIR/PGHD</t>
   </si>
   <si>
     <t/>
@@ -552,7 +541,7 @@
     <t>Meta.tag</t>
   </si>
   <si>
-    <t>MHV tag</t>
+    <t>(MHV tag)</t>
   </si>
   <si>
     <t>FamilyMemberHistory.implicitRules</t>
@@ -665,14 +654,14 @@
     <t>sibling</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-multiBirth}
+    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-MultiBirth}
 </t>
   </si>
   <si>
-    <t>multi-birth indication</t>
-  </si>
-  <si>
-    <t>When this family member is known to be part of a multi-birth, indicate how many siblings.</t>
+    <t>MultiBirth indication</t>
+  </si>
+  <si>
+    <t>When this family member is known to be part of a MultiBirth, indicate how many siblings.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -685,35 +674,44 @@
     <t>adopted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-adopted}
+    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-Adopted}
 </t>
   </si>
   <si>
-    <t>adopted indication</t>
-  </si>
-  <si>
-    <t>When this family member is adopted.</t>
+    <t>Adopted indication</t>
+  </si>
+  <si>
+    <t>When this family member is Adopted.</t>
+  </si>
+  <si>
+    <t>Adopted</t>
   </si>
   <si>
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-ethnicity}
+    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-Ethnicity}
 </t>
   </si>
   <si>
-    <t>What is the ethnicity of this family member
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>What is the Ethnicity of this family member
 Note would like to use the us-core defined extension, but it is not allowed in FamilyMemberHistory [jira issue](https://jira.hl7.org/browse/FHIR-35997)</t>
   </si>
   <si>
     <t>race</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-race}
+    <t xml:space="preserve">Extension {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/FM-Race}
 </t>
   </si>
   <si>
-    <t>What is the race of this family member
+    <t>Race</t>
+  </si>
+  <si>
+    <t>What is the Race of this family member
 Note would like to use us-core defined extension, but is not allowed in FamilyMemberHistory [Jira issue](https://jira.hl7.org/browse/FHIR-35998)</t>
   </si>
   <si>
@@ -822,7 +820,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>complete</t>
+    <t>(complete)</t>
   </si>
   <si>
     <t>FamilyMemberHistory.dataAbsentReason</t>
@@ -876,7 +874,7 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>the Patient</t>
+    <t>(the Patient)</t>
   </si>
   <si>
     <t>FamilyMemberHistory.date</t>
@@ -904,7 +902,7 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
-    <t>the date recorded</t>
+    <t>(the date recorded)</t>
   </si>
   <si>
     <t>FamilyMemberHistory.name</t>
@@ -925,6 +923,9 @@
     <t>the family member name</t>
   </si>
   <si>
+    <t>First Name:, Last Name:</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
@@ -946,6 +947,9 @@
     <t>the family member relationship</t>
   </si>
   <si>
+    <t>Relationship:</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
@@ -968,6 +972,9 @@
   </si>
   <si>
     <t>the gender of the family member</t>
+  </si>
+  <si>
+    <t>(the gender of the family member)</t>
   </si>
   <si>
     <t>FamilyMemberHistory.born[x]</t>
@@ -1069,6 +1076,9 @@
     <t>death</t>
   </si>
   <si>
+    <t>Living/Deceased choice</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
@@ -1128,6 +1138,74 @@
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=ActCode#ANNGEN].value</t>
   </si>
   <si>
+    <t>FamilyMemberHistory.note.id</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.note.extension</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.condition</t>
   </si>
   <si>
@@ -1188,6 +1266,9 @@
     <t>Condition/Problem</t>
   </si>
   <si>
+    <t>Condition/Problem/Other</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
@@ -1247,9 +1328,6 @@
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1617,7 +1695,8 @@
     <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="179.68359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.5546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="72.640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="71.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1741,6 +1820,9 @@
       <c r="AN1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1748,5342 +1830,6062 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="X26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AF26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>248</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>265</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>281</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>330</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>105</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>109</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>115</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>189</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>371</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>369</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>109</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7093,7 +7895,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -91,26 +91,28 @@
   * Thus a query of the FamilyMemberHistory instances for a given Patient will give you all the relatives for which medical history is known.
   * Each FamilyMemberHistory record would be updated when new medical conditions/problems are learned
   * Thus FamilyMemberHistory needs to have support for Create/Read/Update/Delete
-  * once created will or might have an id, versionId, lastUpdated, text, and identifier
+* once created will or might have an id, versionId, lastUpdated, text, and identifier
 * must be marked with MHV app tag
 * must point at the patient
 * must indicate the date this record is being recorded into PGHD 
 * should have a name of the family member
-* should have the relationship this family member has with the Patient
+* must have the relationship this family member has with the Patient
 * should have the sex/gender (administrative gender) of this family member
 * should have the age or date-of-birth
   * should use a valueSet for date ranges on decades 
   * indicate estimatedAge if the age is estimated
 * should have indication when patient has died with the age of death or date
   * should use a valueSet for date ranges on decades 
-* extension indication of twin (multiple-birth) using * extension indicate Race 
-* extension indicate Ethnicity 
-* extension indicated if Adopted
+* may have extension indication of twin (multiple-birth) using 
+* may have extension indicate Race 
+* may have extension indicate Ethnicity 
+* may have extension indicate Adopted
 * should have 0..* conditions
   * condition.code should be from a given valueSet
   * condition.outcome should indicate the outcome of this condition
   * condition.onset[x] should indicate when this condition first manifested
-  * condition.note may include a freetext note</t>
+  * condition.note may include a freetext note
+* should have a note</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -97,7 +97,7 @@
 * must indicate the date this record is being recorded into PGHD 
 * should have a name of the family member
 * must have the relationship this family member has with the Patient
-* should have the sex/gender (administrative gender) of this family member
+* should have the sex/gender (birth sex) of this family member
 * should have the age or date-of-birth
   * should use a valueSet for date ranges on decades 
   * indicate estimatedAge if the age is estimated

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -1024,10 +1024,20 @@
     <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>participation[typeCode=SBJ].act[classCode=OBS,moodCode=EVN, code="age"].value</t>
   </si>
   <si>
     <t>the age of the family member</t>
+  </si>
+  <si>
+    <t>ageString</t>
+  </si>
+  <si>
+    <t>should use strings from [Ages](CodeSystem-Ages.html)</t>
   </si>
   <si>
     <t>FamilyMemberHistory.estimatedAge</t>
@@ -1649,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5562,7 +5572,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>307</v>
       </c>
@@ -5636,16 +5646,14 @@
         <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>307</v>
@@ -5669,23 +5677,25 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5706,26 +5716,24 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5769,7 +5777,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5778,7 +5786,7 @@
         <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>101</v>
@@ -5790,21 +5798,21 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5827,20 +5835,26 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5884,7 +5898,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5893,7 +5907,7 @@
         <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
@@ -5905,21 +5919,21 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5930,10 +5944,10 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5942,17 +5956,15 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -5977,13 +5989,13 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -6001,13 +6013,13 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
@@ -6016,27 +6028,27 @@
         <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6059,15 +6071,17 @@
         <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6092,13 +6106,13 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6116,7 +6130,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6131,16 +6145,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6165,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6162,7 +6176,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6171,16 +6185,16 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6231,7 +6245,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6246,16 +6260,16 @@
         <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6266,7 +6280,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6277,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6289,13 +6303,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6346,28 +6360,28 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>105</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6381,18 +6395,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6404,17 +6418,15 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6451,31 +6463,31 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6498,18 +6510,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6518,19 +6530,19 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>353</v>
+        <v>109</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>111</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>112</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6568,40 +6580,40 @@
         <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6615,7 +6627,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6638,15 +6650,17 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6695,7 +6709,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6716,7 +6730,7 @@
         <v>190</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6728,9 +6742,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6738,13 +6752,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6753,13 +6767,13 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6810,10 +6824,10 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>89</v>
@@ -6831,21 +6845,21 @@
         <v>190</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6853,10 +6867,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -6865,16 +6879,16 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6925,13 +6939,13 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
@@ -6943,24 +6957,24 @@
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6971,10 +6985,10 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6983,13 +6997,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7040,19 +7054,19 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>105</v>
+        <v>375</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7061,7 +7075,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7075,18 +7089,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7098,17 +7112,15 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7157,19 +7169,19 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7192,11 +7204,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7209,26 +7221,24 @@
         <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>111</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7297,7 +7307,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7311,39 +7321,43 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7367,66 +7381,66 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7434,13 +7448,13 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7452,10 +7466,10 @@
         <v>250</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7485,10 +7499,10 @@
         <v>156</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7506,10 +7520,10 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>89</v>
@@ -7527,21 +7541,21 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>190</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7564,13 +7578,13 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7597,13 +7611,13 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
@@ -7621,7 +7635,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7642,16 +7656,16 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52">
@@ -7679,18 +7693,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7759,21 +7771,21 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7784,10 +7796,10 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7796,16 +7808,18 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7853,13 +7867,13 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
@@ -7874,20 +7888,135 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AO53" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7897,7 +8026,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>John Moehrke (himself)</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -78,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -295,10 +298,6 @@
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -318,47 +317,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>FamilyMemberHistory.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>FamilyMemberHistory.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -409,10 +412,6 @@
   </si>
   <si>
     <t>FamilyMemberHistory.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1488,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1566,37 +1565,41 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1608,48 +1611,54 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1668,17 +1677,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1687,23 +1696,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.79296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="179.68359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
@@ -1713,224 +1722,224 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1942,7 +1951,7 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>87</v>
@@ -1957,20 +1966,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>90</v>
@@ -1989,83 +1998,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -2074,20 +2083,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>90</v>
@@ -2104,83 +2113,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -2189,258 +2198,258 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>120</v>
@@ -2453,83 +2462,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -2538,20 +2547,20 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>90</v>
@@ -2570,83 +2579,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -2655,20 +2664,20 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>90</v>
@@ -2687,83 +2696,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -2772,20 +2781,20 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>90</v>
@@ -2804,83 +2813,83 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2889,20 +2898,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>90</v>
@@ -2921,26 +2930,26 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
         <v>147</v>
@@ -2952,52 +2961,52 @@
         <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3006,7 +3015,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3016,10 +3025,10 @@
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>90</v>
@@ -3038,26 +3047,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>156</v>
@@ -3069,46 +3078,46 @@
         <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>160</v>
@@ -3123,17 +3132,17 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>90</v>
@@ -3155,83 +3164,83 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3240,23 +3249,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>167</v>
@@ -3272,26 +3281,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>171</v>
@@ -3303,52 +3312,52 @@
         <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3361,19 +3370,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>177</v>
@@ -3389,83 +3398,83 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3478,19 +3487,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>185</v>
@@ -3506,83 +3515,83 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3591,26 +3600,26 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>192</v>
@@ -3621,81 +3630,81 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -3706,11 +3715,11 @@
         <v>195</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>89</v>
@@ -3719,10 +3728,10 @@
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>196</v>
@@ -3736,77 +3745,77 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>199</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>200</v>
@@ -3823,11 +3832,11 @@
         <v>201</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
@@ -3836,10 +3845,10 @@
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>202</v>
@@ -3853,77 +3862,77 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>199</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>205</v>
@@ -3940,23 +3949,23 @@
         <v>206</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>207</v>
@@ -3970,77 +3979,77 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>199</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>208</v>
@@ -4057,23 +4066,23 @@
         <v>210</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>211</v>
@@ -4087,77 +4096,77 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>199</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>212</v>
@@ -4172,26 +4181,26 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>215</v>
@@ -4200,89 +4209,89 @@
         <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>217</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4291,20 +4300,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>90</v>
@@ -4325,62 +4334,62 @@
         <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
@@ -4389,7 +4398,7 @@
         <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>226</v>
@@ -4398,10 +4407,10 @@
         <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -4410,20 +4419,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>90</v>
@@ -4440,62 +4449,62 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4504,19 +4513,19 @@
         <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -4525,20 +4534,20 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>90</v>
@@ -4557,62 +4566,62 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4621,19 +4630,19 @@
         <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -4642,7 +4651,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4652,7 +4661,7 @@
         <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>90</v>
@@ -4674,26 +4683,26 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>243</v>
@@ -4705,19 +4714,19 @@
         <v>245</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>239</v>
@@ -4729,7 +4738,7 @@
         <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>101</v>
@@ -4738,10 +4747,10 @@
         <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>247</v>
@@ -4759,20 +4768,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>90</v>
@@ -4791,26 +4800,26 @@
         <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>156</v>
@@ -4822,52 +4831,52 @@
         <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4886,10 +4895,10 @@
         <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>90</v>
@@ -4906,50 +4915,50 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>257</v>
@@ -4961,7 +4970,7 @@
         <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>101</v>
@@ -4970,7 +4979,7 @@
         <v>262</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>263</v>
@@ -4991,7 +5000,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5001,10 +5010,10 @@
         <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>90</v>
@@ -5025,71 +5034,71 @@
         <v>271</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>272</v>
@@ -5110,11 +5119,11 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>89</v>
@@ -5123,13 +5132,13 @@
         <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>276</v>
@@ -5142,77 +5151,77 @@
         <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>280</v>
@@ -5227,7 +5236,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5237,10 +5246,10 @@
         <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>90</v>
@@ -5257,26 +5266,26 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>156</v>
@@ -5288,19 +5297,19 @@
         <v>286</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>282</v>
@@ -5312,22 +5321,22 @@
         <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>288</v>
@@ -5342,11 +5351,11 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>89</v>
@@ -5355,7 +5364,7 @@
         <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>90</v>
@@ -5376,26 +5385,26 @@
         <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>147</v>
@@ -5407,46 +5416,46 @@
         <v>296</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>297</v>
@@ -5461,11 +5470,11 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>89</v>
@@ -5474,10 +5483,10 @@
         <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>300</v>
@@ -5493,56 +5502,56 @@
         <v>303</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>299</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
@@ -5554,16 +5563,16 @@
         <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>306</v>
@@ -5578,11 +5587,11 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>89</v>
@@ -5591,7 +5600,7 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>90</v>
@@ -5612,54 +5621,54 @@
         <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>313</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5671,16 +5680,16 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>315</v>
@@ -5697,26 +5706,26 @@
         <v>316</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>317</v>
@@ -5731,56 +5740,56 @@
         <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>307</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>89</v>
@@ -5792,22 +5801,22 @@
         <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -5816,11 +5825,11 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>89</v>
@@ -5829,7 +5838,7 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>90</v>
@@ -5850,58 +5859,58 @@
         <v>323</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>324</v>
       </c>
       <c r="Q36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -5913,16 +5922,16 @@
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>326</v>
@@ -5937,11 +5946,11 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>89</v>
@@ -5950,7 +5959,7 @@
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>90</v>
@@ -5967,77 +5976,77 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>332</v>
@@ -6052,20 +6061,20 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>90</v>
@@ -6084,26 +6093,26 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>156</v>
@@ -6115,31 +6124,31 @@
         <v>339</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>101</v>
@@ -6148,7 +6157,7 @@
         <v>340</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>256</v>
@@ -6157,10 +6166,10 @@
         <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6169,20 +6178,20 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>90</v>
@@ -6199,62 +6208,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>101</v>
@@ -6263,7 +6272,7 @@
         <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>346</v>
@@ -6272,10 +6281,10 @@
         <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -6284,23 +6293,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>348</v>
@@ -6314,83 +6323,83 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6399,113 +6408,113 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -6514,115 +6523,115 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6631,20 +6640,20 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>90</v>
@@ -6663,68 +6672,68 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>190</v>
@@ -6733,13 +6742,13 @@
         <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -6748,20 +6757,20 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>90</v>
@@ -6778,68 +6787,68 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>190</v>
@@ -6848,13 +6857,13 @@
         <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -6863,7 +6872,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6876,7 +6885,7 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>90</v>
@@ -6893,50 +6902,50 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>371</v>
@@ -6948,13 +6957,13 @@
         <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>190</v>
@@ -6963,7 +6972,7 @@
         <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>373</v>
@@ -6978,23 +6987,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>376</v>
@@ -7008,83 +7017,83 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7093,113 +7102,113 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7208,115 +7217,115 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7329,13 +7338,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>90</v>
@@ -7344,7 +7353,7 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>384</v>
@@ -7353,89 +7362,89 @@
         <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>217</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7444,7 +7453,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7454,13 +7463,13 @@
         <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>250</v>
@@ -7474,26 +7483,26 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>156</v>
@@ -7505,19 +7514,19 @@
         <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>387</v>
@@ -7529,22 +7538,22 @@
         <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>393</v>
@@ -7559,11 +7568,11 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>89</v>
@@ -7572,10 +7581,10 @@
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>250</v>
@@ -7589,26 +7598,26 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>156</v>
@@ -7620,46 +7629,46 @@
         <v>399</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>401</v>
@@ -7674,11 +7683,11 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>89</v>
@@ -7687,10 +7696,10 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>319</v>
@@ -7704,83 +7713,83 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -7789,11 +7798,11 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>89</v>
@@ -7802,10 +7811,10 @@
         <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>406</v>
@@ -7821,77 +7830,77 @@
         <v>409</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>411</v>
@@ -7906,23 +7915,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>348</v>
@@ -7936,83 +7945,83 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -160,6 +160,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -652,6 +655,9 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>FamilyMemberHistory.extension:sibling</t>
+  </si>
+  <si>
     <t>sibling</t>
   </si>
   <si>
@@ -672,6 +678,9 @@
     <t>number of siblings</t>
   </si>
   <si>
+    <t>FamilyMemberHistory.extension:adopted</t>
+  </si>
+  <si>
     <t>adopted</t>
   </si>
   <si>
@@ -688,6 +697,9 @@
     <t>Adopted</t>
   </si>
   <si>
+    <t>FamilyMemberHistory.extension:ethnicity</t>
+  </si>
+  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -702,6 +714,9 @@
 Note would like to use the us-core defined extension, but it is not allowed in FamilyMemberHistory [jira issue](https://jira.hl7.org/browse/FHIR-35997)</t>
   </si>
   <si>
+    <t>FamilyMemberHistory.extension:race</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -1031,6 +1046,9 @@
   </si>
   <si>
     <t>the age of the family member</t>
+  </si>
+  <si>
+    <t>FamilyMemberHistory.age[x]:ageString</t>
   </si>
   <si>
     <t>ageString</t>
@@ -1668,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1678,46 +1696,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.76953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.79296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="109.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="48.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="179.68359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.640625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="71.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="179.68359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="72.640625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="71.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1844,105 +1862,108 @@
       <c r="AO1" t="s" s="1">
         <v>78</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>85</v>
@@ -1951,38 +1972,41 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>91</v>
@@ -1996,113 +2020,116 @@
       <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>98</v>
@@ -2110,114 +2137,117 @@
       <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2225,114 +2255,117 @@
       <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>111</v>
@@ -2343,116 +2376,119 @@
       <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>121</v>
@@ -2460,113 +2496,116 @@
       <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>126</v>
@@ -2577,113 +2616,116 @@
       <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>132</v>
@@ -2694,113 +2736,116 @@
       <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>138</v>
@@ -2811,113 +2856,116 @@
       <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>144</v>
@@ -2928,31 +2976,31 @@
       <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
         <v>148</v>
@@ -2961,83 +3009,86 @@
         <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>153</v>
@@ -3045,31 +3096,31 @@
       <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>157</v>
@@ -3078,83 +3129,86 @@
         <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>163</v>
@@ -3162,113 +3216,116 @@
       <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>168</v>
@@ -3279,31 +3336,31 @@
       <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>172</v>
@@ -3312,80 +3369,83 @@
         <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>178</v>
@@ -3396,113 +3456,116 @@
       <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>186</v>
@@ -3513,2921 +3576,2996 @@
       <c r="M16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>190</v>
-      </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="AH26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>270</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>279</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J30" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>286</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>294</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>303</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>190</v>
+        <v>311</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K34" t="s" s="2">
+      <c r="AI34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AB34" s="2"/>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>190</v>
+        <v>320</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
+      <c r="O35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>190</v>
+        <v>332</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>345</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>104</v>
@@ -6435,114 +6573,117 @@
       <c r="L41" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>111</v>
@@ -6553,575 +6694,590 @@
       <c r="M42" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N42" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>191</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J44" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>191</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>372</v>
+        <v>191</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>380</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>104</v>
@@ -7129,114 +7285,117 @@
       <c r="L47" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>111</v>
@@ -7247,785 +7406,806 @@
       <c r="M48" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N48" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>113</v>
+        <v>391</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>255</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>390</v>
+        <v>157</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>400</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>398</v>
+        <v>157</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>190</v>
+        <v>407</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>190</v>
+        <v>417</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Information about patient's relatives, relevant for patient</t>
@@ -1894,13 +1898,13 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1966,30 +1970,30 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2000,7 +2004,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2009,19 +2013,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2071,13 +2075,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2106,10 +2110,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2120,7 +2124,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2129,16 +2133,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2189,19 +2193,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2224,10 +2228,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2238,7 +2242,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
@@ -2250,13 +2254,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2307,13 +2311,13 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -2328,7 +2332,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2342,14 +2346,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2368,16 +2372,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2415,19 +2419,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2439,7 +2443,7 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2448,7 +2452,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2462,10 +2466,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2476,7 +2480,7 @@
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2485,19 +2489,19 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2547,19 +2551,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2582,10 +2586,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2596,7 +2600,7 @@
         <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2605,19 +2609,19 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2667,19 +2671,19 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2702,10 +2706,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2716,7 +2720,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
@@ -2725,19 +2729,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2787,19 +2791,19 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2822,10 +2826,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2845,19 +2849,19 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2907,7 +2911,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2919,7 +2923,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2942,10 +2946,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2965,19 +2969,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3003,13 +3007,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3027,7 +3031,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3039,7 +3043,7 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3062,10 +3066,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3073,10 +3077,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3085,19 +3089,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3108,7 +3112,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>80</v>
@@ -3123,13 +3127,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3147,7 +3151,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3159,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3174,18 +3178,18 @@
         <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3196,28 +3200,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3267,19 +3271,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3302,10 +3306,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3316,7 +3320,7 @@
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3328,16 +3332,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3363,13 +3367,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3387,19 +3391,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3422,21 +3426,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3448,16 +3452,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3507,19 +3511,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3528,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3542,14 +3546,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3568,16 +3572,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3627,7 +3631,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3648,7 +3652,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3662,10 +3666,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3688,13 +3692,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3733,17 +3737,17 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3755,7 +3759,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3778,13 +3782,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
@@ -3794,10 +3798,10 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -3806,13 +3810,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3863,7 +3867,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3872,10 +3876,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3890,21 +3894,21 @@
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
@@ -3914,10 +3918,10 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -3926,13 +3930,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3983,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -3992,10 +3996,10 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4010,21 +4014,21 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4037,7 +4041,7 @@
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4046,13 +4050,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4103,7 +4107,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4112,10 +4116,10 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4130,21 +4134,21 @@
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4157,7 +4161,7 @@
         <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4166,13 +4170,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4223,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4232,10 +4236,10 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4250,22 +4254,22 @@
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4278,25 +4282,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4345,7 +4349,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4357,7 +4361,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4366,7 +4370,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4380,10 +4384,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4403,22 +4407,22 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4467,7 +4471,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4479,19 +4483,19 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4502,10 +4506,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4525,16 +4529,16 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4585,7 +4589,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4597,16 +4601,16 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4620,10 +4624,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4643,19 +4647,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4705,7 +4709,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4717,16 +4721,16 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4740,10 +4744,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4751,31 +4755,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4801,13 +4805,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4825,22 +4829,22 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4849,21 +4853,21 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4883,20 +4887,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4921,13 +4925,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4945,19 +4949,19 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4966,7 +4970,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4980,21 +4984,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5003,16 +5007,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5063,45 +5067,45 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5109,10 +5113,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5121,22 +5125,22 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5185,19 +5189,19 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5206,24 +5210,24 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5234,29 +5238,29 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5305,19 +5309,19 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5326,24 +5330,24 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5351,10 +5355,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5363,16 +5367,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5399,13 +5403,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5423,19 +5427,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5444,24 +5448,24 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5472,31 +5476,31 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5521,13 +5525,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5545,19 +5549,19 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5572,18 +5576,18 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5594,10 +5598,10 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5606,17 +5610,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5665,19 +5669,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5686,24 +5690,24 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5714,31 +5718,31 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5775,29 +5779,29 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5806,27 +5810,27 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -5836,7 +5840,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5845,22 +5849,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5909,19 +5913,19 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5930,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5944,10 +5948,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5958,94 +5962,94 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6060,18 +6064,18 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6082,25 +6086,25 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6151,19 +6155,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6172,24 +6176,24 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6209,19 +6213,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6247,13 +6251,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6271,7 +6275,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6283,19 +6287,19 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6306,10 +6310,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6329,16 +6333,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6389,7 +6393,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6401,19 +6405,19 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6424,10 +6428,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6450,13 +6454,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6507,7 +6511,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6522,13 +6526,13 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6542,10 +6546,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6556,7 +6560,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6568,13 +6572,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6625,13 +6629,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -6646,7 +6650,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6660,14 +6664,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6686,16 +6690,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6733,19 +6737,19 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6757,7 +6761,7 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6766,7 +6770,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6780,10 +6784,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6794,7 +6798,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6803,19 +6807,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6865,28 +6869,28 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6900,10 +6904,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6914,7 +6918,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6923,16 +6927,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6983,28 +6987,28 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7018,10 +7022,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7029,28 +7033,28 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7101,45 +7105,45 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7153,7 +7157,7 @@
         <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7162,13 +7166,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7219,7 +7223,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7231,7 +7235,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7240,7 +7244,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7254,10 +7258,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7268,7 +7272,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7280,13 +7284,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7337,13 +7341,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7358,7 +7362,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7372,14 +7376,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7398,16 +7402,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7457,7 +7461,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7469,7 +7473,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7478,7 +7482,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7492,14 +7496,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7512,25 +7516,25 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7591,7 +7595,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7600,7 +7604,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7614,10 +7618,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7625,10 +7629,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7640,13 +7644,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7673,13 +7677,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7697,19 +7701,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7718,24 +7722,24 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7746,10 +7750,10 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -7758,13 +7762,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7791,13 +7795,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7815,19 +7819,19 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7836,24 +7840,24 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7864,10 +7868,10 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -7876,13 +7880,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7933,19 +7937,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -7968,10 +7972,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7982,10 +7986,10 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -7994,17 +7998,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8053,19 +8057,19 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8074,24 +8078,24 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8114,13 +8118,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8171,7 +8175,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8183,7 +8187,7 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8192,7 +8196,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the FamilyMemberHistory that declares how MHV will Create/Update in PGHD for an family member history record.
+    <t>A profile on the FamilyMemberHistory that declares how MHV will Create in PGHD for an family member history record.
 **Proposed mapping not yet approved for implementation**
 Given that MyHealtheVet has access to medical record (Vista and Cerner) of FamilyMemberHistory, there should be logic keeping a patient from entering a duplicate details.
 * For each relative of the Patient there will be a FamilyMemberHistory instance 

--- a/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
+++ b/docs/StructureDefinition-VA.MHV.familymemberhistory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -305,6 +305,10 @@
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -462,7 +466,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -482,7 +486,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1482,10 +1486,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1967,33 +1971,33 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2004,7 +2008,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2013,19 +2017,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2075,13 +2079,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2110,10 +2114,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2124,7 +2128,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2133,16 +2137,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2193,19 +2197,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2228,10 +2232,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2242,7 +2246,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
@@ -2254,13 +2258,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2311,13 +2315,13 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -2332,7 +2336,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2346,14 +2350,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2372,16 +2376,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2419,19 +2423,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2443,7 +2447,7 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2452,7 +2456,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2466,10 +2470,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2480,7 +2484,7 @@
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2489,19 +2493,19 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2551,19 +2555,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2586,10 +2590,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2600,7 +2604,7 @@
         <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2609,19 +2613,19 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2671,19 +2675,19 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2706,10 +2710,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2720,7 +2724,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
@@ -2729,19 +2733,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2791,19 +2795,19 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2826,10 +2830,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2849,19 +2853,19 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2911,7 +2915,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2923,7 +2927,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2946,10 +2950,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2969,19 +2973,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3007,13 +3011,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3031,7 +3035,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3043,7 +3047,7 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3066,10 +3070,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3077,10 +3081,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3089,19 +3093,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3112,7 +3116,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>80</v>
@@ -3127,13 +3131,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3151,7 +3155,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3163,7 +3167,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3178,18 +3182,18 @@
         <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3200,28 +3204,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3271,19 +3275,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3306,10 +3310,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3320,7 +3324,7 @@
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3332,16 +3336,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3367,13 +3371,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3391,19 +3395,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3426,21 +3430,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3452,16 +3456,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3511,19 +3515,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3532,7 +3536,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3546,14 +3550,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3572,16 +3576,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3631,7 +3635,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3652,7 +3656,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3666,10 +3670,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3692,13 +3696,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3737,17 +3741,17 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3759,7 +3763,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3782,13 +3786,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
@@ -3798,10 +3802,10 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -3810,13 +3814,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3867,7 +3871,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3876,10 +3880,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3894,21 +3898,21 @@
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
@@ -3918,10 +3922,10 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -3930,13 +3934,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3987,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -3996,10 +4000,10 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4014,21 +4018,21 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4041,7 +4045,7 @@
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4050,13 +4054,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4107,7 +4111,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4116,10 +4120,10 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4134,21 +4138,21 @@
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4161,7 +4165,7 @@
         <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4170,13 +4174,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4227,7 +4231,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4236,10 +4240,10 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4254,22 +4258,22 @@
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4282,25 +4286,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4349,7 +4353,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4361,7 +4365,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4370,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4384,10 +4388,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4407,22 +4411,22 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4471,7 +4475,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4483,19 +4487,19 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4506,10 +4510,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4529,16 +4533,16 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4589,7 +4593,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4601,16 +4605,16 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4624,10 +4628,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4647,19 +4651,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4709,7 +4713,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4721,16 +4725,16 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4744,10 +4748,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4755,31 +4759,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4805,13 +4809,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4829,22 +4833,22 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4853,21 +4857,21 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4887,20 +4891,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4925,13 +4929,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4949,19 +4953,19 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4970,7 +4974,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4984,21 +4988,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5007,16 +5011,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5067,45 +5071,45 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5113,10 +5117,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5125,22 +5129,22 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5189,19 +5193,19 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5210,24 +5214,24 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5238,29 +5242,29 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5309,19 +5313,19 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5330,24 +5334,24 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5355,10 +5359,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5367,16 +5371,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5403,13 +5407,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5427,19 +5431,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5448,24 +5452,24 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5476,31 +5480,31 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5525,13 +5529,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5549,19 +5553,19 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5576,18 +5580,18 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5598,10 +5602,10 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5610,17 +5614,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5669,19 +5673,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5690,24 +5694,24 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5718,31 +5722,31 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5779,29 +5783,29 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5810,27 +5814,27 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -5840,7 +5844,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5849,22 +5853,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5913,19 +5917,19 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5934,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5948,10 +5952,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5962,94 +5966,94 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6064,18 +6068,18 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6086,25 +6090,25 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6155,19 +6159,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6176,24 +6180,24 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6213,19 +6217,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6251,13 +6255,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6275,7 +6279,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6287,19 +6291,19 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6310,10 +6314,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6333,16 +6337,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6393,7 +6397,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6405,19 +6409,19 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6428,10 +6432,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6454,13 +6458,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6511,7 +6515,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6523,16 +6527,16 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6546,10 +6550,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6560,7 +6564,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6572,13 +6576,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6629,13 +6633,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -6650,7 +6654,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6664,14 +6668,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6690,16 +6694,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6737,19 +6741,19 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6761,7 +6765,7 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6770,7 +6774,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6784,10 +6788,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6798,7 +6802,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6807,19 +6811,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6869,28 +6873,28 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6904,10 +6908,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6918,7 +6922,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6927,16 +6931,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6987,28 +6991,28 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7022,10 +7026,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7033,28 +7037,28 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7105,45 +7109,45 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7157,7 +7161,7 @@
         <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7166,13 +7170,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7223,7 +7227,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7235,7 +7239,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7244,7 +7248,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7258,10 +7262,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7272,7 +7276,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7284,13 +7288,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7341,13 +7345,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7362,7 +7366,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7376,14 +7380,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7402,16 +7406,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7461,7 +7465,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7473,7 +7477,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7482,7 +7486,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7496,14 +7500,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7516,25 +7520,25 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7583,7 +7587,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7595,7 +7599,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7604,7 +7608,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7618,10 +7622,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7629,10 +7633,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7644,13 +7648,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7677,13 +7681,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7701,19 +7705,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7722,24 +7726,24 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7750,10 +7754,10 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -7762,13 +7766,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7795,13 +7799,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7819,19 +7823,19 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7840,24 +7844,24 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7868,10 +7872,10 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -7880,13 +7884,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7937,19 +7941,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -7972,10 +7976,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7986,10 +7990,10 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -7998,17 +8002,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8057,19 +8061,19 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8078,24 +8082,24 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8118,13 +8122,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8175,7 +8179,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8187,7 +8191,7 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8196,7 +8200,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
